--- a/templet.xlsx
+++ b/templet.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12920"/>
+    <workbookView windowWidth="30240" windowHeight="13060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="esl" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="lyrics" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="354">
   <si>
     <t>input path</t>
   </si>
@@ -49,736 +50,1808 @@
     <t>ESL0001 - Introducing Yourself.mp3</t>
   </si>
   <si>
+    <t>00:00:52,00:04:43,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:18:53,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0002 – Getting Up.mp3</t>
+  </si>
+  <si>
+    <t>00:01:00,00:03:30,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:19:46,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0003 – Cleaning Up.mp3</t>
+  </si>
+  <si>
+    <t>00:00:57,00:03:20,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:22:44,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0004 – Eating Breakfast.mp3</t>
+  </si>
+  <si>
+    <t>00:00:52,00:02:47,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:21:46,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0005 - Getting Dressed &amp; Ready for Work.mp3</t>
+  </si>
+  <si>
+    <t>00:00:51,00:03:02,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:17:40,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0006 - The Commute to Work.mp3</t>
+  </si>
+  <si>
+    <t>00:00:56,00:02:50,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:21:01,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0007 - At My Desk, on Break, and at Lunch.mp3</t>
+  </si>
+  <si>
+    <t>00:00:57,00:03:14,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:19:51,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0008 - The Commute Home and Running Errands.mp3</t>
+  </si>
+  <si>
+    <t>00:00:53,00:03:12,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:19:22,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0009 - Making and Eating Dinner, and Washing Up.mp3</t>
+  </si>
+  <si>
+    <t>00:00:50,00:03:07,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:19:13,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0010 - Relaxing, the Mail, and the Trash.mp3</t>
+  </si>
+  <si>
+    <t>00:00:58,00:02:40,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:16:02,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0011 - Getting Ready for Bed and Going to Sleep.mp3</t>
+  </si>
+  <si>
+    <t>00:00:54,00:02:52,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:18:14,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0012 - Small Talk.mp3</t>
+  </si>
+  <si>
+    <t>00:00:47,00:03:01,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:15:02,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0013 – Going to the Drugstore.mp3</t>
+  </si>
+  <si>
+    <t>00:00:46,00:02:34,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:21:08,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0014 – Going to the Post Office.mp3</t>
+  </si>
+  <si>
+    <t>00:00:46,00:03:29,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:18:36,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0015 - Problems at the Office.mp3</t>
+  </si>
+  <si>
+    <t>00:01:05,00:03:59,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:16:58,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0016 – Driving on the Freeways.mp3</t>
+  </si>
+  <si>
+    <t>00:00:50,00:03:42,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:17:10,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0017 – Reading the Newspaper.mp3</t>
+  </si>
+  <si>
+    <t>00:00:53,00:03:04,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:16:27,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0018 – Seeing Old Friends.mp3</t>
+  </si>
+  <si>
+    <t>00:00:48,00:03:08,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:14:49,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0019 – Tough Negotiations.mp3</t>
+  </si>
+  <si>
+    <t>00:00:59,00:04:07,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:19:35,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0020 – Formal Emails.mp3</t>
+  </si>
+  <si>
+    <t>00:00:54,00:02:46,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:14:37,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0021 - Getting an Interview.mp3</t>
+  </si>
+  <si>
+    <t>00:00:50,00:03:43,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:14:47,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0022 - Making a Good Impression.mp3</t>
+  </si>
+  <si>
+    <t>00:00:47,00:03:08,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:13:21,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0023 - A Visit to the Doctor.mp3</t>
+  </si>
+  <si>
+    <t>00:00:47,00:04:13,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:22:37,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0024 - Taking Credit.mp3</t>
+  </si>
+  <si>
+    <t>00:00:48,00:03:15,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>ESL0025 - A Trip to New York City.mp3</t>
+  </si>
+  <si>
+    <t>00:00:48,00:03:47,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:19:01,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0026 - At the Movies.mp3</t>
+  </si>
+  <si>
+    <t>00:00:47,00:04:40,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:18:17,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0027 - Car Trouble.mp3</t>
+  </si>
+  <si>
+    <t>00:00:46,00:03:05,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:18:39,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0028 - Cashing a Check.mp3</t>
+  </si>
+  <si>
+    <t>00:00:46,00:02:44,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:14:23,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0029 - Staying In.mp3</t>
+  </si>
+  <si>
+    <t>00:00:48,00:03:28,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:16:05,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0030 - At the Art Exhibit.mp3</t>
+  </si>
+  <si>
+    <t>00:00:45,00:02:57,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:15:22,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0031 - Getting Up.mp3</t>
+  </si>
+  <si>
+    <t>00:00:48,00:02:56,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:19:37,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0032 – Cleaning Up and Putting on Make-up.mp3</t>
+  </si>
+  <si>
+    <t>00:00:49,00:02:24,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:21:13,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0033 - Eating Breakfast.mp3</t>
+  </si>
+  <si>
+    <t>00:00:48,00:02:16,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:19:19,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0034 - Doing Hair and Getting Dressed.mp3</t>
+  </si>
+  <si>
+    <t>00:00:48,00:02:20,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:20:12,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0035 - Taking Public Transportation to Work.mp3</t>
+  </si>
+  <si>
+    <t>00:00:51,00:02:52,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:18:16,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0036 - At My Desk and at Lunch.mp3</t>
+  </si>
+  <si>
+    <t>00:00:53,00:02:53,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:20:14,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0037 - The Bank and The Market.mp3</t>
+  </si>
+  <si>
+    <t>00:00:51,00:02:36,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:17:15,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0038 - Dinner and Making Dessert.mp3</t>
+  </si>
+  <si>
+    <t>00:00:52,00:02:57,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:17:44,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0039 - Cleaning and Relaxing.mp3</t>
+  </si>
+  <si>
+    <t>00:00:53,00:02:29,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:16:24,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0040 - Getting Ready for Bed and Going to Sleep.mp3</t>
+  </si>
+  <si>
+    <t>00:00:56,00:02:18,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:14:35,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0041 – Understanding Men and Women.mp3</t>
+  </si>
+  <si>
+    <t>00:00:48,00:03:43,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>ESL0042 – Talking to the Professor.mp3</t>
+  </si>
+  <si>
+    <t>00:00:49,00:03:26,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:17:55,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0043 – A Trip to the Library.mp3</t>
+  </si>
+  <si>
+    <t>00:00:47,00:04:16,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:20:19,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0044 – Hiring for a Job.mp3</t>
+  </si>
+  <si>
+    <t>00:00:50,00:03:33,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:20:57,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0045 – A Camping Trip.mp3</t>
+  </si>
+  <si>
+    <t>00:00:48,00:02:55,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:17:14,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0046 – Getting Ready to Go.mp3</t>
+  </si>
+  <si>
+    <t>00:00:51,00:03:47,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:16:17,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0047 – Teamwork.mp3</t>
+  </si>
+  <si>
+    <t>00:00:52,00:03:19,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:14:50,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0048 – Getting a Haircut.mp3</t>
+  </si>
+  <si>
+    <t>00:00:51,00:03:10,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>ESL0049 – Preparing a Paper (for School).mp3</t>
+  </si>
+  <si>
+    <t>00:00:52,00:02:00,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:12:32,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>ESL0050 – Reading Magazines.mp3</t>
+  </si>
+  <si>
+    <t>00:00:47,00:03:13,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50slow</t>
+  </si>
+  <si>
+    <t>00:13:48,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50fast</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lyrics</t>
+  </si>
+  <si>
+    <t>homeDir/Music/iTunes/iTunes Media/Music/eslpod/esl1-50</t>
+  </si>
+  <si>
+    <t>[start of story] 
+Let me tell you a little about myself. 
+I was born and raised in Minnesota and I’m a native of the city of Saint Paul. I 
+grew up there with my parents and my eight brothers and two sisters. I’m the 
+eleventh child, so you could say I’m the baby of the family, but I swear I wasn’t 
+spoiled. 
+That’s right, I’m part of a big family, probably the biggest family in the 
+neighborhood, perhaps the biggest family in the state! 
+I had a happy childhood, for the most part. My father and mother didn’t have a lot 
+of money, but because they both worked hard, we never felt deprived. 
+I wasn’t much interested in sports, like my brothers were. I enjoyed reading and 
+listening to music while growing up. I went to grade school near my house, and 
+then to high school about two miles away from our home. 
+After graduating from high school, I went on to the University of Minnesota for my 
+bachelor’s degree. It took me a while to learn the ropes at the university, but I 
+finally graduated about six years later. Better late than never, as my father used 
+to say. 
+I then went to Mexico for a couple of years to teach English and to study 
+Spanish. When I returned, I decided to become a teacher, so I went back to 
+school to get my master’s degree. After teaching high school for a few years, I 
+was offered a job in California, so I moved to Los Angeles in 1991. After working 
+here for a few years, I went back to school (again!) to get my Ph.D. I was starting 
+to become a professional student.
+Well, I completed my Ph.D. in four years and then taught at the university for 
+several years. Now I work at a small research organization here in Los Angeles. I 
+am happily married, and I still enjoy reading and listening to music, and of 
+course, creating ESLPod.com lessons. 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+The worst part of the day for me is definitely when I have to get up. Waking up, 
+that I can handle. But getting up? That, I hate. The covers I have on my bed 
+are heavy, mostly because I have a comforter as well as a light blanket. I sleep 
+with two pillows, which for some reason have different color pillowcases. Well, at 
+least the sheets match. 
+I sometimes wake up before the alarm goes off. I like to keep the alarm at a low 
+volume, with some classical music, nothing too jarring. My old roommate used to 
+like the terrible buzzer that you find on most alarm clocks nowadays, which 
+always used to drive me nuts. As I was saying, I sometimes wake up before the 
+alarm, usually because of some noise outside the house—a car door slamming, 
+an alarm going off, gunfire—well, okay, not gunfire, but man, is my neighborhood 
+noisy! Of course, when I’m staying in a hotel, it’s usually easier to just get a 
+wake up call from the hotel than set the alarm. 
+I’m not really an early riser, so I don’t jump out of bed ready to take on the world. 
+I get up very slowly, usually one foot on the floor at a time. Every once in awhile 
+I’ll oversleep, but not too often. I really love the weekends, when I can sleep in. 
+[End of story]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Start of story] 
+I go into my bathroom sometime around 6:45 a.m. My sink and medicine cabinet 
+are on the left when you enter my bathroom. The toilet is next to that, with the tub 
+in front. Anyway, I turn on the lights, and try to find the mouthwash in the 
+medicine cabinet. I pour a small amount into a cup, swish it around for 30 
+seconds, gargle, and spit. Not pleasant, but necessary. Then I get out the floss. 
+When I’m done flossing, I pull out the toothbrush and the toothpaste. I brush and 
+then it’s off to the shower. 
+I pull the shower curtain aside, step into the tub, and pull the curtain back. I turn 
+on both the hot and the cold water, looking for the perfect temperature. I lather up 
+with soap, put some shampoo in my hair, then rinse and dry off. Now it’s shaving 
+time. I used to own an electric razor, but I found it didn’t shave close enough. So 
+now I’m back to the old hand razor. I lather up with shaving cream, and I start to 
+shave. I rinse the razor and throw the disposable blades in the trash. It’s about 
+7:00 AM, and I’m on to breakfast. 
+[End of story]_x0001_</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+I walk into my kitchen and turn on the coffeemaker. I always put the coffee, filter, 
+and water in the night before so it’s ready to go. Next, I open the door of the 
+cupboard where the cereal is stored. I would love to have ham and eggs for 
+breakfast every morning, or maybe a stack of waffles, but the truth is that I just 
+don’t have the time to cook. 
+So, I pour myself a bowl of cereal and put in a glass of skim milk, making sure I 
+take a spoon out of the silverware tray. I go outside and pick up my newspaper, 
+and sit down at the kitchen table. I love reading the paper in the morning, though 
+usually I just have time to read a few of the stories. When I’ve finished my 
+cereal, I grab a banana and maybe make a slice of toast with jam. I rinse off my 
+breakfast dishes in the sink and put them in the dishwasher. By that time, my 
+coffee is ready so I pour myself a cup and put the rest in a Thermos for work. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+I go back into my bedroom and open up closet door. I have about 30 dress 
+shirts, 10 pairs of pants, a half-dozen ties, and some sweaters, suit jackets, and 
+t-shirts. I pull out a clean pair of socks and underwear, and then decide which 
+shirt I’m going to wear today. I’m terrible at color coordinating, so I usually bring 
+my wife in at this point to help match my shirt and pants. I put on my belt with the 
+silver buckle and polish my shoes. I put my cell phone and car keys in my front 
+pocket, and my wallet in the back one. 
+I put on my glasses and check myself in the mirror to make sure I look okay, and 
+then go into the home office to get my bag. I used to carry a more traditional 
+briefcase, but now I just use my computer bag to hold my laptop and my papers. 
+Now it’s back into the kitchen to grab my Thermos on the way out the door. I 
+lock the door and then hurry to my car in the garage. I’m usually running late and 
+today is no exception! 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+I open my car door and throw my briefcase in the back seat, and get comfortable 
+for my drive. I put my coffee mug into the cup holder, put the keys in the ignition, 
+find the gas pedal, and start the car. My wife drove the car last night, so I have 
+to re-adjust the rear view mirror and the side mirrors. I turn on the radio to listen 
+to the drive time traffic report. I take the transmission out of park and into 
+reverse, back out into the driveway into the street, close the garage door, and put 
+the car into drive. I used to drive a stick shift, but as I get older, I like my 
+automatic transmission more and more. 
+I usually take the freeway to the office, so I get on the onramp for the freeway 
+and drive to where I have to get off. My office is only a few miles from the exit. I 
+pull into the parking garage, swiping my key card to get in. I park, grab my 
+briefcase and coffee, and head toward the elevator. And that only took 40 
+minutes! 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+On the way to the office, I was thinking about what I have on my agenda today. 
+When I get to my desk, there is a stack of new memos and papers in my inbox. 
+When I turn on my computer, I see at least two-dozen emails I need to go 
+through. Just as I start in on the email, my phone rings. It’s my project manager, 
+Julie, asking me to come in for a conference call with our head office. I don’t get 
+back to my desk for nearly two hours. By that time, I was ready for a break. 
+At 10:30, I head down to the break room and get some hot water at the water 
+cooler to make some tea. There were a couple of other people on break, having 
+snacks out of the vending machine and reading the new notices on the bulletin 
+board. I run into Sam, one of my friends at work, and we chat a little before 
+going back to work. 
+Before long, it’s time for lunch. I usually bring my lunch with me to work and eat 
+it at my desk. If I don’t have time to pack a lunch, I sometimes go across the 
+street for some take-out. The only trouble is, it’s always so busy during the lunch 
+hour and I always have to stand in line. That’s usually a pain. On Fridays, I 
+usually go out to lunch with a few friends from work. On casual Fridays, we can 
+kick back a little and take it easy. 
+[End of Story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+It’s five o’clock and it’s quitting time. I put a few files into my bag, grab my mug, 
+and say goodnight to the rest of the people in my area. I go to the parking 
+garage and get into my car. I signal my turn onto the street and drive toward the 
+freeway onramp. I merge as best as I can onto the freeway, which is always a bit 
+of a hassle at this hour. Traffic is stop-and-go all the way from downtown. I hear 
+on the radio that there’s a stalled car in fast lane near La Brea, backing up traffic 
+all the way to Hoover. I decide to get off the freeway and to take surface streets 
+for the rest of the trip. 
+I need to make a stop on the way home. I know that the fridge is empty, so I 
+decide to stop by the market. I get there and I pick up some French bread, a bag 
+of apples, a few bananas, some pasta, tomato sauce, and a cooked chicken. 
+Luckily, they have a lot of checkout stands open, and I get through the line pretty 
+quickly. I thank the cashier and the bagger and push my cart to my car. I open 
+the trunk and load everything up. Just then my wife calls me on my cell phone. 
+She was going to be a little late getting home and asks me to make something 
+for dinner. Tonight, I will be the cook. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+When I get home, I start on dinner right away. I clean off the kitchen counter 
+after putting away the groceries and decide to make pasta. I preheat the oven to 
+375 to bake the bread and to keep the chicken hot until my wife gets home. I put 
+some water in a pan and turn the burner on high. When the water starts boiling, I 
+put in the pasta and decide to make a salad. Just then, my wife opens the back 
+door and yells, “I’m home!” She comes into the kitchen, and helps with chopping 
+the tomatoes to add to the sauce. She stirs the sauce until it’s done, while I 
+finish tossing the salad. 
+I get out the place mats and napkins to set the table. I also make sure that there 
+is a spoon, knife, fork, and plate for each of us. About 15 minutes later, we sit 
+down at the table in the dining room and talk about our long day. My wife says 
+she’ll do the dishes, since I cooked, but of course I help out by drying them. 
+First, I put some of the leftovers in a Tupperware container and some in plastic 
+wrap and the rest in aluminum foil. Then I dry the pans, plates, glasses, and 
+silverware. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+With the dinner dishes done, my wife and I each sit down on the couch to chill 
+out and watch the national news which comes on at 6:30. During the newscast, I 
+sort through the day’s mail. Most of it is junk mail and bills. There are also 
+several fliers for houses for sale in the area. I check the front stoop and see that 
+there are no packages. 
+I like to watch TV and my wife likes to watch reality shows. One thing I hate is 
+having to watch all of the commercials, so I turn the sound down when they come 
+on. After the show is over, I thumb through the latest issue of the Atlantic 
+Monthly, while my wife reads a novel by her favorite mystery writer. 
+At around 9, I remember that tomorrow is trash day, so I take the kitchen 
+garbage out and dump the recycling bins as well. I roll the trash container out to 
+the street ready for the garbage trucks, which come by early in the morning. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+At 10:30, I decide to get ready for bed. When I was little, my mother would read 
+me a bedtime story. I’m looking forward to having that ritual with my own kids 
+someday. 
+I go into the bathroom and turn on the tap. I wash my face, and dry it with my 
+towel. I floss and brush my teeth. I have to admit that by this time, I’m beat, and 
+so is my wife. She cleans up when I’ve finished up. 
+In the meantime, I walk into the bedroom and get undressed. I put my dirty 
+clothes in the hamper and I put on my pajamas. Wearing my slippers, I go into 
+the kitchen to get a glass of water to put next to the bed in case I need it during 
+the night. I pull back the covers, fluff my pillow, and climb into bed. I set my 
+alarm clock for 6:15, and turn off the overhead light. I lay my head down and pull 
+up the covers, kissing my wife goodnight. Some nights I have trouble falling 
+asleep, but tonight, I didn’t need to count any sheep. I nod off right away and 
+before long, I’m fast asleep. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+I admit that I'm not very good at small talk. When I'm with friends, I can just shoot 
+the breeze all day long. But when I talk to a stranger or someone I don't know 
+very well, I'm always casting about, searching for something to talk about. Politics 
+and religion are definitely taboo subjects, at least here in the United States. But 
+you have to chat about something, otherwise there are these uncomfortable 
+silences. 
+So we end up talking about - what else? - the weather. This usually begins with 
+something like, "So, nice weather we've been having!" or "It sure is a warm 
+one out there today." Of course, we have to comment on the temperature. My 
+favorite is, "It's not the heat that's so bad, it's the humidity!" Actually, I think that's 
+true - I hate it most when it's muggy outside. 
+Back in my home state of Minnesota, everyone is obsessed with the weather 
+report! Every TV station has its own meteorologist with a high-tech radar giving 
+you the 5 day forecast. They tell you when the temperature is rising or falling, 
+what kind of clouds are moving in, and how cold the wind chill is. 
+My favorite quote about the weather comes from Mark Twain, who once said, 
+that everybody talks about the weather, but no one does anything about it! 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+I stopped by the drugstore last night on my way back home from work. I had a 
+few toiletries to pick up, as well as my prescription. Fortunately, 
+the chain pharmacy where I go has a little bit of everything: food, greeting cards, 
+magazines – it’s almost as big as a regular supermarket. 
+To begin with, I needed to get some medications for my allergies. I've got hay 
+fever, so I'm sneezing up a storm every morning when I wake up. While I was at 
+it, I also got some antacids and some Band-Aids. Now it was time to pick up 
+my refill. 
+I stood in line for a few minutes before being waited on. Since it was not a new 
+prescription, the pharmacist didn't have to do a consultation with me. I just gave 
+the clerk my insurance card and she rang up the sale. Fortunately, I have a 
+low co-pay, so my HMO foots most of the bill. 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+For me, things never go very smoothly at the local post office. I've learned that if 
+you want to mail a letter, you'll have no problems. But if things get more 
+complicated than that, well, watch out! 
+Yesterday I went there to mail a small package and pick up a book of stamps. I 
+wait my turn in line, and when I get up to the window, the clerk says, "What can I 
+do for you?" "Well," I say, "I need a book – no make that a roll – of stamps. And I 
+need to send this package priority to San Francisco." "You want insurance with 
+that?" he asks me. "Uh, I don't know, what do you recommend?" "Well," he says, 
+"you can send it priority with tracking if you want to see when it gets there, you 
+can send it insured if the contents are valuable, or you can do both." 
+"Okay, I'll take the insurance." "Then step aside to fill out the insurance form," he 
+says, "and bring it back up to me when you're finished." With that, I was waved 
+aside to fill out my form. "Next in line!" the clerk calls. When I finish filling out the 
+form, I wait patiently until the gentleman being waited on in front of me is 
+finished, and then step back up to the window. "Sorry," the clerk says, "I'm on 
+break now. She can help you at the next window." 
+Maybe it would be quicker just to drive my package to San Francisco. 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of dialogue] 
+Lucy: Hey Jeff, can I pick your brain for a minute?
+Jeff: Sure, what's up? 
+Lucy: Well, I have a sticky situation at work and I wanted to get your input. You're 
+always so tactful. 
+Jeff: Thanks. I'm not sure I can help but I'll give you my two cents. 
+Lucy: Well, it's like this. There's this guy I work with who is always making jokes 
+about the boss. Don't get me wrong. I like a good joke now and then, especially 
+about the boss. But, sometimes he goes too far. 
+Jeff. What do you mean? 
+Lucy: Well, just the other day, he got a picture off the Internet and cut and 
+pasted the boss's head onto it. Let's just say it was a very unflattering picture of 
+him. 
+Jeff: Hmm. That's really unprofessional, but it sounds harmless enough, if 
+he kept it to himself or just showed it to a few friends. 
+Lucy: That's just it. He didn't keep it to himself. He attached the picture to an 
+email and sent it to the entire company, including the top brass. 
+Jeff: You're joking, right?Lucy: No, I'm not. This is what I meant when I said he goes too far. He just 
+doesn't know when to quit. 
+Jeff: Is he a friend of yours? 
+Lucy: No, not really. But, I don't want the guy to get fired. He's actually a good 
+person. He's just clueless, that's all. 
+Jeff: Well, that's a tough one. Let me think about it. Maybe there's a way to get 
+him to cut it out before he gets fired. 
+Lucy: Thanks. I appreciate it. 
+Jeff: Oh, it's no big deal. Let's go get a bite to eat. 
+Lucy: Sure. Sounds good to me. 
+[end of dialogue]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+Driving in a big city like L.A. can be very difficult. It sometimes feels like I'm doing 
+battle just to get to the grocery store. What is it about getting behind the wheel 
+that brings out people's aggressive side? The most mild-mannered driver 
+becomes crazy when they get on the road. 
+In L.A., people rely on the freeway to commute to their jobs or just to get around 
+town. I think driving on the freeway has its good and its bad. On the one hand, 
+there are no stoplights and the speed limit is over 55 miles per hour so you can 
+get somewhere quickly. On the other hand, there are drawbacks, too. People 
+like to gun their engines and cut off other cars to get ahead. If you’re driving in 
+the passing lane, for example, you’d better be driving very fast, since most 
+people are speeding. With all of these speeding cars, it’s not unusual to see a 
+pileup every day of the week! 
+As an alternate to the freeway, I sometimes take surface streets. Of course, 
+surface streets have their drawbacks, too. If you have a long commute to work or 
+school, it can take you a long time to get there. There are a lot of stop signs, 
+stoplights, and crosswalks. And, people sometimes tailgate if they think you're 
+not going fast enough. Now that I think about it, there's sometimes even more 
+congestion on surface streets than on the freeways! 
+It’s tough living in L.A. unless you never leave your house! 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story]
+I fell into the habit of reading the newspaper every morning when I was a 
+kid. Back then, there used to be two daily newspapers – a morning edition and 
+an afternoon edition. 
+Nowadays, of course, most cities in the U.S. have just a morning paper. I'm not 
+too picky about which newspaper I read, although when it comes to national 
+newspapers, I prefer reading the New York Times or the Wall Street 
+Journal over USA Today.
+Don't get me wrong, I'm not a news junkie. I just like browsing the different 
+sections, reading the headlines, and checking out the classifieds. I 
+usually skip the sport section and the funnies, and only flip through the food and 
+health sections, but I always read the front page and the editorial page. On the 
+weekends, I'll skim the entertainment section for movie listings and reviews. 
+I'm sort of old fashioned in that I still like reading a real, paper newspaper. Sure, I 
+also read some of my news online, but nothing beats lounging around on Sunday 
+morning reading the big, thick paper. Don't worry, though: I always recycle my 
+stack of newspapers.
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+This has been a month for seeing old friends. I got an email a couple of weeks 
+ago from an old friend from college. She and her family are visiting L.A. for a 
+week. They plan to see family and to visit old friends. Since she moved away, I 
+hadn't seen her in ages. I'm looking forward to meeting her new kids and seeing 
+her again. 
+Another old friend called this week. She and I were buddies when we were 
+young. She plans to swing by L.A. on her way to San Francisco. We've made 
+plans to have lunch. She works in Washington D.C. and is normally very busy. 
+I'm glad she could make time for us to get together. 
+When we say good-bye to our friends, we always hope to keep in touch. 
+But, what with this and that, it's sometimes hard to do. With friends that I've fallen 
+out of touch with, it's sometimes hard to meet again and pick up where we left off. 
+We've both moved on to a different phase in our lives. Some of my old friends 
+have become very successful, and are living lives in the fast lane. Other friends 
+are having a more difficult time and are just making ends meet. But, no matter 
+how they're doing, it's always nice to touch base again. 
+I'm really looking forward to seeing these old pals and catching up after all this 
+time. We just won’t mention how much we’ve aged. 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+I'm not what you would call the world's best negotiator, but sometimes it's 
+necessary to engage in a tough negotiation. Take, for instance, the time I had 
+to renew the lease on my apartment. This was back in college, when I was 
+renting a small studio in the Miracle Mile area of Los Angeles. When my 
+lease was up, the landlord and I sat down to hammer out the terms of a new 
+lease. 
+"I'll tell you what I'm going to do," he said. "I'm going to give you a break on rent if 
+you sign a two-year lease instead of just a one-year lease." 
+"Well," I said, "I don't know. What sort of break are we talking about here?" 
+"I'll give you a 5% rent increase instead of a 10% increase in exchange for you 
+signing a two-year lease. It's a win-win situation: you get a cut in rent, and I get 
+the security of a two-year lease." 
+At this point, I decided to make a counter-proposal. "How about this," I said, "You 
+give me a one year lease with a six percent increase." 
+"No, I can't make that sort of deal," he said. "But here's what I can do, and it's 
+my final offer: I'll pay for your electricity for the first 6 months of the lease, along 
+with the other terms I mentioned before." 
+"You drive a hard bargain. Okay, it's a deal," I said. I guess I could have tried to 
+bargain him down a bit more, but I was happy with our agreement. Now all I had 
+to do was sign on the dotted line.
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+Dear Dr. Lee: 
+I don't know if you'll remember me, but I introduced myself to you after 
+your keynote at last week's conference. As I mentioned to you, I have read all of 
+your work and I am a great admirer of your research. Your article in 
+the top journal Language Learning was groundbreaking. 
+The reason I am contacting you is that I would like to come to your university to 
+study with you. I met some of your students at the conference and they couldn't 
+stop singing your praises as a professor. I don't know if you are accepting any 
+new students for the next year, but if so, I hope you will consider me. 
+I have included two attachments to this email. I am sending a copy of my CV, 
+and I am also including a research paper I completed earlier this year. I hope that 
+these will give you an idea of my qualifications and experience. Please let me 
+know if you need more information or more samples of my academic work. 
+It was a pleasure and a privilege to meet you at the conference, and I hope to 
+hear more about your research at a future conference. 
+Sincerely, 
+Lucy Hocevar 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+I've finally landed my first interview. Well, actually, that's not really true. I have 
+been on many interviews for part-time jobs. This was my first interview for a full_x0002_time job. 
+In less than two months, I will graduate from Arizona University. After a lot of 
+back and forth trying to decide on a major, I finally decided to double major. I 
+would study both political science and marketing. 
+These are not majors that usually go together. In fact, most people thought I was 
+crazy. But, after a lot of soul searching, I decided to combine my two main 
+interests: 1. politics and 2. getting a job! Those are my two priorities. I thought 
+that if I got degrees in these two fields, I could cast a wide net when going job 
+hunting. And, that's what I'm trying to do now. 
+Since I don't know if I want to work in the public or private sector, I've applied for 
+jobs in both. In the public sector, I could work for the government. Maybe one 
+day, I could even be a speech writer for the president! Okay, maybe I should 
+shoot a little lower. 
+In the private sector, I could work for private organizations such as museums or 
+schools. Some of those are non-profit. I could also work for a company. 
+Everybody tells me that that's where you can make a lot of money. I haven't 
+decided yet. I'm planning to apply for a lot of jobs and will see what happens. 
+What I want now is just to get some job offers. Then, I can start to be picky. 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+My interview is today. It is with a large corporation with its headquarters in San 
+Francisco, California. It also has satellite offices across the U.S. and in Europe. 
+I'm not sure if this will be the right fit for me, but I'm keeping an open mind. 
+I got some sound advice from my aunt. She said I should be confident but not 
+cocky. That means I have to look for opportunities to talk about myself but not 
+make the mistake of boasting or, worse, making things up. I do that sometimes 
+when I get really nervous. My brain stops working and my mouth keeps going. 
+I need to be respectful but not meek. I want to be professional with everyone – 
+my co-workers and my bosses – but I don't want them to think that I would let my 
+co-workers walk all over me. 
+I should show them that I'm a team player. Nobody likes a person who tries to 
+grab the limelight all of the time, especially if they're new, like me. 
+Okay, I think I'm ready. I just have to remember to be confident, calm, respectful, 
+professional, and a team player. No problem, right?
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+Going to the doctor is never particularly pleasant for me. But I couldn’t put it off 
+any longer. It was time for my annual physical, and there was no getting around 
+it. So I picked up the phone and called for an appointment. “I’d like to see Dr. 
+Shimoya next week, please, if that’s possible,” I said. Of course, it wasn’t 
+possible. The doctor was booked until next month, the receptionist told me. 
+“Okay,” I said, “Let’s schedule it for next month.”
+When the day arrived, I drove over to the doctor and checked in at the 
+receptionist’s desk. I had to present my HMO card and pay the co-pay of $15.00. 
+The receptionist instructed me to go to waiting room B, down the hall, first door 
+on the right. So I went there and took a seat to wait. And I waited, and waited. 
+Finally, my name was called and I went in to see the doctor. The nurse weighed 
+me, took my temperature and blood pressure, and asked me why I was there. I 
+told her it was time for my yearly checkup. She told me to follow her to the 
+examination room and then to strip down to my underwear. 
+Now I was sitting on the exam table, half-freezing, waiting for the doctor to show 
+up. Finally, he walked in, looked at my chart, and began his examination. 
+“Breathe,” he said, as he placed the stethoscope on my chest. “Breathe in and 
+out slowly,” he said. I did so. Then he checked my throat and had me lie down to 
+check my abdomen. Finally, he ordered a blood test and said, “Well, you’re good 
+for another year, Mr. McQuillan.” 
+Thank goodness, I thought to myself, and got dressed to leave. 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of dialogue] 
+Jeff: You're not going to believe what happened. 
+Lucy: Oh, is the big meeting over? What happened? 
+Jeff: Dan tried to take credit for our idea for the new campaign. 
+Lucy: You're kidding me! I thought he might try to pull something like this, but I 
+didn't think he'd have the nerve to do that. 
+Jeff: Yeah, and to top it off, he said that he did it all by himself. 
+Lucy: He's unbelievable. What a jerk! He slacks off for the last two weeks 
+and doesn't lift a finger to help on any part of the project. 
+Jeff: Well, he's not going to get away with it. I'm going to talk to the senior vice 
+president. I think she'll listen. 
+Lucy: Are you sure? I think she's fair-minded, but maybe she thinks we 
+should work it out with Dan ourselves. She might not want to step in. 
+Jeff: Well, can you think of another way to handle this? 
+Lucy: I wish I could. I don't want to just blow it off, but we have to think of 
+the fallout. Maybe the senior VP will end up thinking we can't fight our own 
+battles. 
+Jeff: Yeah, you're right. I'm just so ticked off right now I can't think. 
+Lucy: That's probably the problem. We both need to cool off so we can think 
+straight. Let's get some coffee and see what we can come up with.
+Jeff: That sounds good. But if I see Dan on the way out, I'm going to floor that 
+guy. 
+Lucy: Yeah. That makes two of us. 
+[end of dialogue]</t>
+  </si>
+  <si>
+    <t>[start of dialogue] 
+(The phone rings.) 
+Lucy: Hello. 
+Jeff: Hey, Lucy, it's Jeff. 
+Lucy: Hey, welcome back. How was your vacation? 
+Jeff: Oh, it was great. The seven days in New York were a blast. 
+Lucy: Oh, yeah? Did you do any sightseeing or just visit with friends? 
+Jeff: I got to do both, actually. First, I saw my friend Edmundo, who just moved 
+there. He hadn't seen much of the city himself, so we went to all the tourist spots. 
+We got a guidebook and went to the major museums, saw a play, went to 
+a concert in Central Park, and took the Staten Island Ferry. We did all of that in a 
+day and a half. It was a whirlwind, but we got to see a lot. 
+Lucy: A day and a half?! You guys must have been exhausted. 
+Jeff: Yeah, we were. But, the rest of my trip was pretty low-key. My friends Pat 
+and Billie rented a car and we took a road trip to Upstate New York to visit some 
+other friends of ours. 
+Lucy: Did you have to stay over in a hotel along the way, or did you drive straight 
+through?
+Jeff: We didn't bother with booking hotel rooms, so we just drove straight there. It 
+wasn't that far. 
+Lucy: How long did you stay there? 
+Jeff: We were only there two days, and we drove back and got back last night. 
+My flight was this morning at 8:00 a.m. The worst part of the whole trip was that 
+my flight was cancelled. I was rebooked onto another flight that had a three_x0002_hour layover in Chicago. That was a major pain. 
+Lucy: It sounds like it. Well, I'm glad you made it back okay. And you even have 
+the weekend to rest up before work on Monday. 
+Jeff: Yeah, I'll need it. I've got to catch up on my sleep! 
+[end of dialogue]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+My friend Jim and I decided to see the latest blockbuster this weekend. I like a 
+good action movie once in a while. We decided to meet at the movie theater after 
+work. 
+When I got to the theater, I looked around and didn't see Jim. So, I thought I 
+would get in line to buy tickets. There were two different lines, so I asked a 
+woman standing in the first one, "Is this the line for Mission Impossible 4?" She 
+said, "Yes, I'm afraid it is." I turned around and saw why she said that. The line 
+was really long and had about 20 people in it already. Oh, well. I went to the back 
+of the line and waited. 
+About 10 minutes later, I saw Jim coming up the escalator. When he got off the 
+escalator, he looked out of breath. He said, "Hey, sorry for being so late. I hit a lot 
+of traffic on the way over." I told him, "Don't worry about it. As you can see, we 
+have a long wait." 
+We finally got to the head of the line and walked up to the ticket window. The 
+clerk behind the ticket window asked, "Can I help you?" I said, "Two tickets for 
+MI-4, please." We weren't children, students, or seniors, so there were no special 
+discounts for us. The clerk handed me two tickets and we headed inside. There 
+was a ticket taker just inside the door. He took our tickets and handed back our 
+stubs. 
+Coming straight from work, I was really hungry. Jim and I went to the concession 
+stand and got a couple of Cokes, hot dogs, a tub of popcorn, and a box of candy. 
+We were set. We went into the screening room and it was packed. Luckily for us, 
+we found some seats together that weren't too close to the screen.
+We sat back and waited for the movie to start. While we watched 10 minutes of 
+previews, we wolfed down our food. By the time the movie started, I was feeling 
+pretty good. I don't know which was better, the movie or the great junk food! 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+I was driving down the Santa Monica Freeway yesterday, headed toward 
+downtown, when all of a sudden I saw my engine light come on. Needless to say, 
+that's not the sort of thing one likes to see. So, I immediately pulled over to the 
+side of the road and parked on the shoulder. I popped the hood and looked to 
+see what the problem might be. I'm no mechanic – I barely know how to check 
+the oil and the wiper fluid – but perhaps something would jump out at me. 
+The car didn't overheat, since there was no steam coming out of the radiator. I 
+checked the battery cables, and the battery was definitely not dead. I didn't know 
+quite what else to do, so I pulled out my cell phone and called AAA for a tow to 
+the nearest repair shop. I started worrying about all the things it could be: the fuel 
+pump, the transmission, the electrical system. Who knows? I just had new brakes 
+put in a month ago, so I knew it couldn't be that. 
+The tow truck finally arrived and we went to a nearby mechanic. He checked 
+everything and then told me that he had found the problem: the engine light 
+sensor was broken! I now had to take it to the dealer to get it fixed. Well, at least 
+it didn't end up costing me an arm and a leg. 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+The local branch of my bank is located just a few blocks from where I live. It's 
+very convenient, since it has four ATMs open 24/7. Today I had to go make a 
+deposit, but because I wanted to cash a check as well, I needed to go inside to 
+talk to a teller. 
+Inside the bank, I got in line for the tellers. All of the tellers are behind a large 
+piece of bulletproof glass, so you have to speak up when you are talking to them. 
+When I got to the head of the line, the cashier asked, "How may I help you?" I 
+said, "I'd like to deposit this payroll check into my checking account and cash this 
+cashier's check." "Certainly," she said, "just endorse the back of both checks and 
+put them in the tray." I said, "Sure. And can I get that in small bills – tens and 
+twenties?" 
+I waited for her to process my checks. Then she said, "Here you are," and 
+counted out the cash and put it in an envelope. "Thank you," I said, and walked 
+away. Now that I have some money burning a hole in my pocket, I guess I’d 
+better spend it! 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+It was Friday night, and my roommate and I felt like staying in. We both had had 
+a tough week at work and decided to have a low-key evening. On my way home, 
+I stopped at the video rental store and rented a couple of movies. I got a new 
+release and a classic. I thought I had left my membership card at home, but I 
+found it at the last minute. I like going to my local rental store because it doesn't 
+charge late fees. That's handy when I don't have time to return the DVDs the 
+next day. 
+My roommate and I were feeling too tired to go out to eat, so we decided to order 
+in. We mulled over the take-out menus from restaurants that had delivery 
+service, but couldn't decide which restaurant to order from. The trouble was that 
+we had never eaten at the two restaurants nearby. Ordering from either one 
+would be a crapshoot. In the end, we decided to just order a pizza. I called the 
+restaurant and placed our delivery order. 
+About a half hour later, the delivery person came to the door. I asked him if I 
+could pay with a credit card, and he said, "Sure." I handed him my card and he 
+wrote down the number. I signed the slip and added a tip to the total. He gave 
+me a copy of the slip as a receipt and then handed me the pizza. I was really 
+glad to get it; I was starving. 
+With our movies and the pizza, we were all set. There's nothing like a night at 
+home, vegging out to get over a hectic week. 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+I really wanted to see the new exhibit at the art museum, and I invited Lucy to 
+come along. We both like contemporary art, and this was an exhibition by an 
+artist we've both liked ever since she was up-and-coming 10 years ago. 
+This exhibit was a retrospective, so there was going to be a lot of different types 
+of work by the artist. There would be some of the artist's paintings, her early 
+work. There would also be some of her sculptures. Her most recent work is 
+mixed-media. She is very versatile, and that's one of the reasons I like her work 
+so much. 
+We were going to the opening of the exhibition, with a wine and cheese reception 
+for the artist. When we arrived in the main gallery, there were already a lot of 
+people there. Looking around, I could see that some of the people were artists 
+themselves and others were art critics. I'm sure there were collectors there, too. I 
+knew the curator and looked around for him. I spotted him talking with a group of 
+people in the corner. 
+After a little while, the curator said a few words and then introduced the artist. We 
+got a chance to meet her briefly and she was very gracious. I'm glad that 
+someone with her talent has made it in the art world. That's not easy to do. And I 
+think her best work is still to come. 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+On a weekday, I usually get up around 6:30 a.m., but I set my alarm to go off at 
+6:20 so that I can hit the snooze button to sleep another 10 minutes. My 
+roommate thinks I’m crazy, but doing this in the mornings actually helps me wake 
+up. I’m a night owl, not an early bird like she is, so I need an extra few minutes 
+to get going in the morning. 
+One reason it’s so hard to get up is because my bedroom and my bed are so 
+comfortable. I splurged and bought a bed with a very soft, thick mattress. I also 
+have matching sheets and pillowcases, and a comforter that is made of goose 
+down. Even my nightstand matches my sheets and the rest of my bedroom. I 
+decorated it so that it would be restful after a busy day at work. 
+When I get up, the first thing I do is put on my robe. It’s always so cold in the 
+apartment in the mornings, no matter what time of year it is. Then, I usually 
+make my bed. I hated making my bed when I was little, but now it’s become a 
+routine. Sometimes, though, I’m so tired that I sleep in for just a little too long 
+and then, the bed definitely doesn’t get made. On those days, I wish I could 
+sleep in all day! 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+I share a bathroom with my roommate, which is usually not a problem. We each 
+try to keep the sink, the tub, and the toilet clean, and we have separate medicine 
+cabinets to keep our things. There’s also room under the sink for our hairdryers 
+and tampons. 
+I start out by rinsing my mouth with some mouthwash before flossing. Then, I 
+take out my toothbrush and toothpaste and brush my teeth. I only wash my hair 
+every other day so I put on a shower cap and don’t have to get out my shampoo 
+and conditioner. I like to take bubble baths when I have time, but on a busy 
+morning, a shower will have to do. I lather up quickly and give my legs a quick 
+shave. 
+I don’t wear a lot of make-up to work so I just put on a little blush and a light_x0002_colored lipstick, and skip the mascara and eye shadow. I put a few hot curlers in 
+my hair and I’m ready for breakfast! 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+In the kitchen, the first thing I do is pour myself a cup of coffee and I add a little 
+skim milk and sugar. My roommate usually makes a pot when she wakes up for 
+both of us since she gets up first. 
+I go the fridge to take out the eggs. When I have time, I like to cook a hot 
+breakfast, so I take out the frying pan, pour a little oil in it, and turn on the front 
+burner on the stovetop. While the eggs are cooking, I put two pieces of bread 
+into the toaster. When the eggs are nice and brown on the edges, I use a 
+spatula to put them on a plate. Some mornings, I have to settle for some cold 
+cereal or just toast with jam, but it’s nice to start the day with a sit-down meal 
+when I get the chance. 
+When I’m done, I take my plate and my silverware to the sink, where my 
+roommate has left her breakfast dishes. Since she makes the coffee in the 
+morning, I wash the dishes. It’s a pretty good arrangement. I put a little 
+dishwashing detergent on the sponge, scrub the dishes, and leave them in the 
+drying rack to dry. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+I go back into the bathroom to finish doing my hair. Before I put the hot curlers 
+in, I had put a little gel in my hair to give it some volume. I also like to use my 
+hairdryer to give my bangs a little more shape. I take out the curlers one by one 
+and brush through them into the style I like. I finish it off with a little hairspray 
+and I’m ready to get dressed. 
+In my bedroom, I look in my closet for a skirt and blouse to match. The office I 
+work in is pretty casual so I don’t need to wear a suit to work. On Fridays, we’re 
+allowed to be even more casual so most people wear jeans and sweaters to the 
+office, but no one dares to show up in t-shirts and shorts. I put on the skirt and 
+blouse and open the top dresser drawer to get some pantyhose. I wish I could 
+wear my tennis shoes to work, but I pick out a pair of heels and put them on. I 
+was ready to go. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+I like my job but it takes over an hour to get there from my part of town. First, I 
+walk three blocks to the subway station and swipe my monthly pass to get 
+through the turnstile. I wait on the platform for the first express train. I get on 
+and since it’s so crowded during the morning hours, there aren’t any seats and I 
+stand, holding onto a handrail. At my stop, I get off and transfer to a second train 
+that will get me to Union Station. This one isn’t as crowded and I manage to find 
+a seat. 
+When the train gets to Union Station, I get off the train, go up the stairs, and go 
+out of the front exit to the bus stop. I get on the B bus to downtown and show my 
+bus pass to the bus driver. I sit down near the front of the bus and when three 
+more people get on board, the driver starts on the route. When we get close to 
+my stop, I press the button to signal to the driver that I need to get off and the 
+bus pulls up to the next stop. I get off and walk half a block to the building where 
+I work. It’s a long commute, but I look around every morning and I see that I’m 
+not the only one who has to do it. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+I get to the office and sit down at my desk. I share a cubicle with another 
+employee, Jim, but he only works in the afternoons so we don’t usually get in 
+each other’s way too much. I boot up my computer and look at my agenda for 
+today. I had about 30 new emails in my inbox but I decide not to read them right 
+away. There were some new inter-office paperwork in my inbox too, but I decide 
+to look at them a little later. First, I wanted to start in on a report that I had to 
+finish today. I had a conference call at the end of the day with the head office, 
+but I had most of the day to get it done. 
+Before long, it was the lunch hour. I didn’t pack a lunch so I ask my supervisor if 
+she wanted to have lunch together. We head down the street to a sit-down 
+restaurant. The hostess shows us to a table in the back of the restaurant. The 
+waiter arrives a few minutes later and we order entrees, no appetizers, since we 
+need to get back by 1:00. The waiter was very busy so I had to wave him down 
+to get the check. He brought the bill, and my supervisor and I split the check. 
+We walk back to the office and I get back to work. Just four more hours until 
+quitting time! 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+I left at work at exactly five o’clock because I wanted to make it to the bank 
+before it closed at 5:30. Fortunately, it’s on the way to the bus stop. I get to the 
+bank and I stand in line. I fill out a deposit envelope and sign the back of my 
+paycheck while I wait my turn. When I get to the front of the line, I hand the teller 
+the envelope and I ask her if she could tell how much I had in my account. She 
+told me my balance and handed me my receipt. 
+I ride the bus and the subway home. I realize that I need a few things at the 
+market and stop at one on the way there. I pick up a cart as soon as I walk in 
+and go to the produce department to load up on fruit, some apples and bananas. 
+I look around to see what kind of cooked foods they have. I’m feeling lazy and I 
+don’t want to cook tonight. I pick up a sandwich and I head for the checkout 
+stands. I get into the shortest line and the cashier rings me up. She gives me 
+my change and the bagger hands me my bags. I walk the two blocks to my 
+apartment and I’m ready for a relaxing evening at home. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+When I get home, I change into my casual clothes and head for the kitchen. I 
+grab my sandwich, a napkin, and sit down at the dining room table to eat. For 
+my birthday last year, my brother gave me some place mats that have maps of 
+the United States on them. I have always been bad at geography so he thought 
+he would be funny and give me something to study while I ate. Of course, I 
+haven’t learned a thing! 
+I am still hungry after the sandwich and want some dessert. I preheat the oven 
+and then take a package of ready-made cookies out of the fridge that just needed 
+to be baked. I get out a cookie sheet and put some aluminum foil on it. I always 
+do this when I bake because this way, I don’t have to do any dishes afterwards. I 
+could just throw away the foil. Then, I shape the dough into circles, put them on 
+the cookie sheet, and put the pan into the oven. 
+After 15 minutes, I put on my oven mitts and take the pan out. The cookies smell 
+great, but first, I need to let them cool. After 30 minutes, I put three of them on a 
+plate and the rest of them in a Tupperware container. I’ll take those to work 
+tomorrow. That should make the day go by a little faster. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+I am feeling pretty energetic when I finish my three cookies and decide to do a 
+little cleaning. I take out a rag and start dusting the living room. I dust the TV 
+and the lamps. I wipe the coffee table, too. The rug looked filthy so I get out the 
+vacuum and vacuum it. I pick up around the room and put things away. The 
+bathroom needs cleaning, too, but by this time, I am starting to feel tired. 
+Mopping the bathroom floor and scrubbing the tub will have to wait for another 
+day. 
+I turn on the TV to watch the newscast, but I missed the national news. I flip 
+though the channels but all I see are commercials. My favorite reality show 
+doesn’t come on for another hour so I turn off the TV. I put down the remote, and 
+pick up a magazine. I thumb through it for few minutes and then the phone rings. 
+It’s my best friend Marlene, so I put down the magazine and spend the half hour 
+chatting with her. There’s nothing like a good talk with a good friend to end a 
+busy day. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[Start of story] 
+I am feeling pretty tired by 11:00 and decide to get ready for bed. I go into the 
+bathroom to take off my make-up. I use a cleanser to wash my face and dry it 
+with a towel. Then I put some toner on my face and then some moisturizer. I 
+comb my hair and tie it back. I don’t like getting hair in my face while I sleep so 
+tying it back helps. I floss and brush my teeth, and am ready for bed. By this 
+time, I am pretty beat. 
+I go into my bedroom and I get undressed. I put the dirty clothes in the hamper 
+and put on my pajamas. I take off my slippers and pull back the covers. I check 
+my alarm to make sure it’s on. I have this same ritual every night, which I think 
+helps me fall asleep more easily. It’s not long before I’m fast asleep. 
+[End of story]</t>
+  </si>
+  <si>
+    <t>[start of dialogue] 
+Lucy: Jeff, here's a question. I was just talking to Dawn. You know, they had their 
+first wedding anniversary last week. Guess what her husband gave her as a 
+present. 
+Jeff: I don't know. What? 
+Lucy: He gave her a vacuum cleaner. 
+Jeff: Didn't she want a vacuum cleaner? 
+Lucy: Yes, the old one was broken, but that's not the point! It was their wedding 
+anniversary, their first one. Dawn was really upset that he wasn't more romantic. 
+He really let her down. 
+Jeff: Oh, great. Women are always saying that men aren't romantic. But we are! 
+Just not in the way that women want. 
+Lucy: What do you mean? 
+Jeff: It's a man's job to protect his wife and family. When something goes wrong, 
+they want to fix it. That's the mark of a good husband. 
+Lucy: I can see that, but that's not romantic in my book. 
+Jeff: That's because you women have this idealized view of romance that you get 
+from a lifetime of watching chick flicks and reading romance novels. Even if a 
+man wanted to, he could never get into the head of a woman and guess what 
+she wanted. That's why women have to just tell us what they want.
+Lucy: That's the problem. We women think men should just know what we want, 
+without us having to tell them; that is, if the man really loved and understood us. 
+That's why we don't want to tell you. But I see your point, too. 
+Jeff: So, I guess it's really true. Men are from Mars and women are from Venus. 
+Lucy: Yeah, that's what makes life interesting, right? 
+[end of dialogue]</t>
+  </si>
+  <si>
+    <t>[start of dialogue] 
+[A knock on the door.] 
+Jeff: Come in. 
+Julie: Hi, Dr. McQuillan, I'm Julie Taylor. I'm in your two o'clock class on Thursdays. 
+Jeff: Hi, Julie. Have a seat. What can I do for you? 
+Julie: I wanted to come see you during your office hours because I missed class last 
+week. I had a family emergency. 
+Jeff: I'm sorry to hear that. We went over a lot of material, so make sure you get the 
+notes from another student in class. 
+Julie: Thanks, I will. Did you give any assignments? 
+Jeff: Yes, I assigned an essay on the topics in chapter three of your textbook. 
+Julie: Oh, I see. Are there guidelines for the essay? 
+Jeff: Yes, it should be 8 to 10 pages, and it's due in two weeks. Take a look at your 
+syllabus. It has more details. 
+Julie: I will. Thanks a lot. I've also been meaning to talk to you about the trouble I'm 
+having keeping up in class. I'm having trouble understanding the lectures. Is there 
+anything you would suggest? 
+Jeff: Some students tape-record the lectures and listen to them afterwards. That seems 
+to help. 
+Julie: That's a great idea. I'll definitely try that. I'm wondering if you give extra credit in 
+your class.
+Jeff: No, I don't give extra credit assignments. But if you're worried about passing, there 
+are still two more tests to pull up your grade. 
+Julie: Yes, I'll study hard for those. Thanks a lot for your time. 
+Jeff: No problem. See you in class. 
+Julie: Okay, Professor McQuillan. See you Thursday.
+[end of dialogue]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+I read in the local paper that a new public library had just opened two weeks ago 
+in my neighborhood. I wanted to check it out. But first, I called the library to check 
+the hours of operation. The librarian told me that they were open Monday 
+through Saturday from 10 to 6, so I decided to see the new library for myself. 
+I parked my car in the library parking lot and walked in. There were two library
+clerks behind the counter and a librarian at the reference desk. I walked around 
+and spotted the nonfiction section and moved on to the fiction stacks. There 
+was a pretty good collection in both of these areas. I wanted to see if they had a 
+book I've been wanting to read. So, I went over to the computer to check the 
+online catalog. As it turns out, they had one copy and it had not been checked
+out. I wrote down the call number and went to the stacks. I found it right away. 
+When I walked in, I also noticed that the library had music CDs, videos, and 
+DVDs that could be checked out. I looked briefly at the collection but decided not 
+to check out any right then. 
+I had my book and I was all set. I stood in line and waited to check my book out. 
+The library clerk said, "Next please," and I stepped up to the counter. I asked her 
+what the loan period was for the book. She told me that the due date was three 
+weeks from today. I gave her my library card. She scanned the bar code on my 
+book and stamped the due date on the back of it. It was quick and easy. I was 
+so glad to have a nice new library so close to home. 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+Last week, my administrative assistant gave notice that he was quitting in two 
+weeks. It couldn't have come at a worse time. It was a very busy time of year, but 
+there was nothing I could do. Right away, we put a want ad in the classifieds and 
+received several applications for the job. I called in four of them for interviews, 
+and I had narrowed it down to two candidates. 
+The first was Claudia Trujillo. From her résumé, I knew that she had had four 
+years of experience working at a telecommunications company. She looked 
+promising, and when she arrived for the interview, she was dressed 
+professionally and seemed personable. When I asked her about her experience, 
+she answered my questions with confidence. She sounded like a hard worker 
+and showed a lot of perseverance. The only drawbacks were that she was a little 
+chatty and she also seemed a little disorganized. 
+The second candidate was Alex Mayhew. Alex had more experience than 
+Claudia, but in different capacities, and only had one year of experience as an 
+administrative assistant. When I met Alex, he seemed a little rough around the 
+edges. He was earnest and eager but didn't have the air of someone who had 
+worked in a corporate environment. Still, he seemed bright and easy to get along 
+with. He did strike me as being a little shy, but I think that was because he was 
+nervous. 
+So, those are my two options. Now, which one should I hire? I need to give it 
+some more thought. 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+My friends and I decided to take a trip to Yosemite National Park to do some 
+camping and hiking. We all like the outdoors, but we all live in the city. We have 
+all been griping about feeling cooped up, so we decided to take a road trip. This 
+trip would give all of us a break from the traffic, noise, and smog that we all deal 
+with in L.A. 
+Before we left, I went to the sporting goods store to get some new gear and 
+equipment. I had a tent, but I needed a new sleeping bag, one that was 
+waterproof. I also needed some new hiking boots. Lucky for me, I found 
+everything in one stop, and by the time I left the store, I was really psyched about 
+the trip. 
+Early on Saturday morning, my friend Rachel came to pick me up. None of us 
+had a camper, but Rachel had an SUV that fit all of us comfortably. I was the last 
+one to be picked up, and I put my backpack and other gear in the trunk. I was 
+about to get into the car when I realized I had left my sunscreen in the house. I 
+rushed back in and grabbed it, and then we were off. I couldn't wait to get some 
+fresh air and plenty of exercise. Yosemite, here we come! 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+I guess I'm just like everybody else. I could do without Mondays. On the 
+weekend, I can kick back and relax, but I dread going back to work when the 
+weekend is over. 
+This morning was particularly hectic. On weeknights, I set my alarm for seven 
+a.m. That's what I did last night. But when I woke up this morning and looked at 
+my alarm clock, it was seven thirty! The alarm clock was on the fritz and it didn't 
+go off. Oh no, I was going to be late again. 
+I washed my face, put on my makeup, got dressed, and ate a small bowl of 
+cereal. I had one foot out the door when I realized I didn't have my keys. I went 
+back into my bedroom and looked on the shelf where I kept them. No luck. 
+Maybe I left them in my purse. I hunted around for them. Finally, I just dumped 
+out everything from my purse onto my bed. I had my wallet, sunglasses, 
+compact, lipstick, eye drops, aspirin, and tissues. But no keys. 
+I looked around the living room. Maybe they fell behind the couch cushions. I 
+picked up each one and looked. No keys. I went into my closet and checked the 
+pockets of my coat. Still, no keys. By this time, I was pretty frantic, so I tried to 
+calm myself down. I decided to get a drink of water. I opened the refrigerator and 
+what did I see? My keys. They were sitting on the shelf right next to the milk. I 
+must have left them there when I got the milk for my cereal. It served me right for 
+being so absentminded. 
+Oh, how I hate Monday mornings! 
+[end of story]</t>
+  </si>
+  <si>
+    <t>[start of dialogue] 
+Jeff: So, does that sound okay with you? 
+Lucy: What? Oh, I'm sorry. I didn't hear what you said. 
+Jeff: You seem preoccupied today. What's up? 
+Lucy: Oh, it's this guy I know from this class I'm taking. His name is Richard. I 
+think I've mentioned him before. 
+Jeff: Yeah, sure, the guy you're working on a project with, right? 
+Lucy: Yeah, that's him. The four of us are supposed to be working as a team on 
+this project, and I'm having a lot of trouble dealing with him. 
+Jeff: What do you mean? 
+Lucy: Well, he doesn't know how to express his opinion without putting other 
+people down. And, he always has to be right. 
+Jeff: He sounds a little immature. 
+Lucy: Yeah, I think it's partly that. He doesn't know how to be diplomatic with 
+people. 
+Jeff: He doesn't know how, or he doesn't want to? 
+Lucy: I don't know, but I do know that sometimes he really gets the better of me.
+Jeff: Well, he sounds pretty hard to get along with. Are the other people in your 
+group feeling the same way? 
+Lucy: Yeah, in fact, they're fed up with him. I keep having to run interference 
+when our discussions get too heated. Actually, I feel really sorry for the guy. He 
+doesn't seem to have too many friends, and he always seems so unhappy. 
+Jeff: Well, I think you're helping just by putting up with him. 
+Lucy: Thanks for trying to make me feel better. Ok, now what were you saying? 
+[end of dialogue]</t>
+  </si>
+  <si>
+    <t>[start of dialogue] 
+I have an appointment with my hairdresser today. It has been too long since I 
+had my hair cut. My bangs were too long. I had split ends and my roots were 
+showing. I was a mess! 
+I arrived for my appointment, and I told the receptionist that I was there for an 
+appointment with Mark. She told me that he was finishing up with another client 
+and that he would be with me soon. About 10 minutes later, he came over to 
+where I was sitting and took me back to his station. 
+Mark: Hi, how have you been? You're looking good. 
+Lucy: Thanks. I've been great. Thanks for fitting me in today. 
+Mark: No problem. So, tell me, what do you want to have done today? 
+Lucy: I need a trim. 
+Mark: Okay. Let's see, how short do you want me to cut it? Shoulder length? 
+Chin length? 
+Lucy: I'd like to take it up about two inches in the back, and the bangs should fall 
+just under my eyebrows. 
+Mark: Okay, I really think that's a good length for your face shape. 
+Just as I had hoped, Mark did a great job with my hair. I paid the receptionist and 
+made sure I gave him a big tip. Anyone who can do wonders with my crazy hair 
+definitely deserves it!
+[end of dialogue]</t>
+  </si>
+  <si>
+    <t>[start of dialogue] 
+Student: I wonder if I could ask you some questions about our paper, Professor. 
+Do you want us to cite our sources in the footnotes? 
+Professor: You should use endnotes for longer explanations. Otherwise, just 
+follow the style sheet I passed out for citations in your paper. 
+Student: I see. And what about the cover page? Is there a special format for that 
+as well? 
+Professor: Do you have the handout I passed out with you? If you look at the 
+bottom of that, you'll see that you should follow the format of the American 
+Psychological Association, fifth edition. 
+Student: Okay, I guess I missed that. 
+[end of dialogue]</t>
+  </si>
+  <si>
+    <t>[start of story] 
+I'm the first to admit that I'm hooked on reading magazines. I've been this way as 
+long as I can remember. I love picking up magazines about different topics. 
+Currently, I subscribe to about six or seven magazines, although when I was 
+getting professional journals during my days at the university, I probably had 15 
+or 20 coming to my box every month. 
+Now I read mostly for pleasure. I like to read The New Yorker because it is so 
+well written. I also get a copy of Atlantic Monthly and Harper’s every month 
+because they have good coverage of cultural, political, and social issues. My 
+latest is to read book reviews. There are a couple of really good book reviews 
+published in the U.S., including The New York Review of Books. 
+But the best reviews for my money are The Times Literary Supplement and the 
+London Review of Books, both of which come out of England. I have to thank my 
+friend Gustavo for turning me on to those two. I prefer to read the nonfiction 
+reviews over the fiction ones, but that's me. Ah, the joys of reading! 
+[end of story]</t>
+  </si>
+  <si>
     <t>00:00:52,00:04:43,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:18:53,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0002 – Getting Up.mp3</t>
-  </si>
-  <si>
     <t>00:01:00,00:03:30,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:19:46,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0003 – Cleaning Up.mp3</t>
-  </si>
-  <si>
     <t>00:00:57,00:03:20,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:22:44,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0004 – Eating Breakfast.mp3</t>
-  </si>
-  <si>
     <t>00:00:52,00:02:47,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:21:46,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0005 - Getting Dressed &amp; Ready for Work.mp3</t>
-  </si>
-  <si>
     <t>00:00:51,00:03:02,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:17:40,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0006 - The Commute to Work.mp3</t>
-  </si>
-  <si>
     <t>00:00:56,00:02:50,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:21:01,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0007 - At My Desk, on Break, and at Lunch.mp3</t>
-  </si>
-  <si>
     <t>00:00:57,00:03:14,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:19:51,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0008 - The Commute Home and Running Errands.mp3</t>
-  </si>
-  <si>
     <t>00:00:53,00:03:12,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:19:22,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0009 - Making and Eating Dinner, and Washing Up.mp3</t>
-  </si>
-  <si>
     <t>00:00:50,00:03:07,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:19:13,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0010 - Relaxing, the Mail, and the Trash.mp3</t>
-  </si>
-  <si>
     <t>00:00:58,00:02:40,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:16:02,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0011 - Getting Ready for Bed and Going to Sleep.mp3</t>
-  </si>
-  <si>
     <t>00:00:54,00:02:52,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:18:14,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0012 - Small Talk.mp3</t>
-  </si>
-  <si>
     <t>00:00:47,00:03:01,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:15:02,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0013 – Going to the Drugstore.mp3</t>
-  </si>
-  <si>
     <t>00:00:46,00:02:34,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:21:08,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0014 – Going to the Post Office.mp3</t>
-  </si>
-  <si>
     <t>00:00:46,00:03:29,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:18:36,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0015 - Problems at the Office.mp3</t>
-  </si>
-  <si>
     <t>00:01:05,00:03:59,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:16:58,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0016 – Driving on the Freeways.mp3</t>
-  </si>
-  <si>
     <t>00:00:50,00:03:42,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:17:10,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0017 – Reading the Newspaper.mp3</t>
-  </si>
-  <si>
     <t>00:00:53,00:03:04,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:16:27,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0018 – Seeing Old Friends.mp3</t>
-  </si>
-  <si>
     <t>00:00:48,00:03:08,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:14:49,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0019 – Tough Negotiations.mp3</t>
-  </si>
-  <si>
     <t>00:00:59,00:04:07,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:19:35,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0020 – Formal Emails.mp3</t>
-  </si>
-  <si>
     <t>00:00:54,00:02:46,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:14:37,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0021 - Getting an Interview.mp3</t>
-  </si>
-  <si>
     <t>00:00:50,00:03:43,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:14:47,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0022 - Making a Good Impression.mp3</t>
-  </si>
-  <si>
     <t>00:00:47,00:03:08,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:13:21,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0023 - A Visit to the Doctor.mp3</t>
-  </si>
-  <si>
     <t>00:00:47,00:04:13,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:22:37,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0024 - Taking Credit.mp3</t>
-  </si>
-  <si>
     <t>00:00:48,00:03:15,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
-    <t>ESL0025 - A Trip to New York City.mp3</t>
-  </si>
-  <si>
     <t>00:00:48,00:03:47,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:19:01,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0026 - At the Movies.mp3</t>
-  </si>
-  <si>
     <t>00:00:47,00:04:40,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:18:17,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0027 - Car Trouble.mp3</t>
-  </si>
-  <si>
     <t>00:00:46,00:03:05,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:18:39,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0028 - Cashing a Check.mp3</t>
-  </si>
-  <si>
     <t>00:00:46,00:02:44,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:14:23,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0029 - Staying In.mp3</t>
-  </si>
-  <si>
     <t>00:00:48,00:03:28,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:16:05,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0030 - At the Art Exhibit.mp3</t>
-  </si>
-  <si>
     <t>00:00:45,00:02:57,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:15:22,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0031 - Getting Up.mp3</t>
-  </si>
-  <si>
     <t>00:00:48,00:02:56,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:19:37,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0032 – Cleaning Up and Putting on Make-up.mp3</t>
-  </si>
-  <si>
     <t>00:00:49,00:02:24,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:21:13,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0033 - Eating Breakfast.mp3</t>
-  </si>
-  <si>
     <t>00:00:48,00:02:16,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:19:19,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0034 - Doing Hair and Getting Dressed.mp3</t>
-  </si>
-  <si>
     <t>00:00:48,00:02:20,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:20:12,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0035 - Taking Public Transportation to Work.mp3</t>
-  </si>
-  <si>
     <t>00:00:51,00:02:52,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:18:16,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0036 - At My Desk and at Lunch.mp3</t>
-  </si>
-  <si>
     <t>00:00:53,00:02:53,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:20:14,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0037 - The Bank and The Market.mp3</t>
-  </si>
-  <si>
     <t>00:00:51,00:02:36,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:17:15,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0038 - Dinner and Making Dessert.mp3</t>
-  </si>
-  <si>
     <t>00:00:52,00:02:57,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:17:44,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0039 - Cleaning and Relaxing.mp3</t>
-  </si>
-  <si>
     <t>00:00:53,00:02:29,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:16:24,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0040 - Getting Ready for Bed and Going to Sleep.mp3</t>
-  </si>
-  <si>
     <t>00:00:56,00:02:18,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:14:35,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0041 – Understanding Men and Women.mp3</t>
-  </si>
-  <si>
     <t>00:00:48,00:03:43,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
-    <t>ESL0042 – Talking to the Professor.mp3</t>
-  </si>
-  <si>
     <t>00:00:49,00:03:26,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:17:55,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0043 – A Trip to the Library.mp3</t>
-  </si>
-  <si>
     <t>00:00:47,00:04:16,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:20:19,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0044 – Hiring for a Job.mp3</t>
-  </si>
-  <si>
     <t>00:00:50,00:03:33,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:20:57,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0045 – A Camping Trip.mp3</t>
-  </si>
-  <si>
     <t>00:00:48,00:02:55,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:17:14,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0046 – Getting Ready to Go.mp3</t>
-  </si>
-  <si>
     <t>00:00:51,00:03:47,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:16:17,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0047 – Teamwork.mp3</t>
-  </si>
-  <si>
     <t>00:00:52,00:03:19,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:14:50,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0048 – Getting a Haircut.mp3</t>
-  </si>
-  <si>
     <t>00:00:51,00:03:10,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
-    <t>ESL0049 – Preparing a Paper (for School).mp3</t>
-  </si>
-  <si>
     <t>00:00:52,00:02:00,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:12:32,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
-    <t>ESL0050 – Reading Magazines.mp3</t>
-  </si>
-  <si>
     <t>00:00:47,00:03:13,slow,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
   </si>
   <si>
     <t>00:13:48,0,fast,homeDir/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50</t>
-  </si>
-  <si>
-    <t>00:00:52,00:04:43,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:18:53,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:01:00,00:03:30,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:19:46,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:57,00:03:20,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:22:44,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:52,00:02:47,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:21:46,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:51,00:03:02,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:17:40,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:56,00:02:50,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:21:01,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:57,00:03:14,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:19:51,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:53,00:03:12,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:19:22,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:50,00:03:07,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:19:13,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:58,00:02:40,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:16:02,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:54,00:02:52,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:18:14,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:47,00:03:01,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:15:02,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:46,00:02:34,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:21:08,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:46,00:03:29,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:18:36,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:01:05,00:03:59,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:16:58,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:50,00:03:42,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:17:10,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:53,00:03:04,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:16:27,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:48,00:03:08,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:14:49,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:59,00:04:07,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:19:35,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:54,00:02:46,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:14:37,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:50,00:03:43,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:14:47,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:47,00:03:08,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:13:21,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:47,00:04:13,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:22:37,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:48,00:03:15,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:00:48,00:03:47,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:19:01,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:47,00:04:40,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:18:17,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:46,00:03:05,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:18:39,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:46,00:02:44,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:14:23,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:48,00:03:28,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:16:05,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:45,00:02:57,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:15:22,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:48,00:02:56,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:19:37,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:49,00:02:24,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:21:13,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:48,00:02:16,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:19:19,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:48,00:02:20,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:20:12,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:51,00:02:52,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:18:16,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:53,00:02:53,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:20:14,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:51,00:02:36,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:17:15,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:52,00:02:57,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:17:44,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:53,00:02:29,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:16:24,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:56,00:02:18,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:14:35,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:48,00:03:43,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:00:49,00:03:26,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:17:55,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:47,00:04:16,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:20:19,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:50,00:03:33,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:20:57,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:48,00:02:55,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:17:14,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:51,00:03:47,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:16:17,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:52,00:03:19,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:14:50,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:51,00:03:10,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:00:52,00:02:00,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:12:32,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
-  </si>
-  <si>
-    <t>00:00:47,00:03:13,slow,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50slow</t>
-  </si>
-  <si>
-    <t>00:13:48,0,fast,/Users/qingnian/Music/iTunes/iTunes Media/Music/eslpod/eslpod1-50fast</t>
   </si>
   <si>
     <t>00:00:52,00:04:43,00:18:53</t>
@@ -1544,11 +2617,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2076,10 +3155,1486 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.4326923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="74.6153846153846" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6153846153846" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.538461538462" style="1" customWidth="1"/>
+    <col min="4" max="4" width="91.2307692307692" style="1" customWidth="1"/>
+    <col min="5" max="16383" width="22.4326923076923" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="22.4326923076923" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="64.0961538461538" customWidth="1"/>
+    <col min="3" max="3" width="36.6153846153846" customWidth="1"/>
+    <col min="4" max="4" width="154.644230769231" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.4326923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2114,10 +4669,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -2128,10 +4683,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
@@ -2142,10 +4697,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
@@ -2156,10 +4711,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -2170,10 +4725,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
@@ -2184,10 +4739,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:4">
@@ -2198,10 +4753,10 @@
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:4">
@@ -2212,10 +4767,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:4">
@@ -2226,10 +4781,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:4">
@@ -2240,10 +4795,10 @@
         <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:4">
@@ -2254,10 +4809,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:4">
@@ -2268,10 +4823,10 @@
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:4">
@@ -2282,10 +4837,10 @@
         <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:4">
@@ -2296,10 +4851,10 @@
         <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:4">
@@ -2310,10 +4865,10 @@
         <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:4">
@@ -2324,10 +4879,10 @@
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:4">
@@ -2338,10 +4893,10 @@
         <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:4">
@@ -2352,10 +4907,10 @@
         <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:4">
@@ -2366,10 +4921,10 @@
         <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:4">
@@ -2380,10 +4935,10 @@
         <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>245</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:4">
@@ -2394,10 +4949,10 @@
         <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:4">
@@ -2408,10 +4963,10 @@
         <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:4">
@@ -2422,10 +4977,10 @@
         <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:4">
@@ -2436,10 +4991,10 @@
         <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:4">
@@ -2450,10 +5005,10 @@
         <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:4">
@@ -2464,10 +5019,10 @@
         <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:4">
@@ -2478,10 +5033,10 @@
         <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
@@ -2492,10 +5047,10 @@
         <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:4">
@@ -2506,10 +5061,10 @@
         <v>88</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:4">
@@ -2520,10 +5075,10 @@
         <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>264</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
@@ -2534,10 +5089,10 @@
         <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:4">
@@ -2548,10 +5103,10 @@
         <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>268</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>99</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:4">
@@ -2562,10 +5117,10 @@
         <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:4">
@@ -2576,10 +5131,10 @@
         <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>105</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:4">
@@ -2590,10 +5145,10 @@
         <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:4">
@@ -2604,10 +5159,10 @@
         <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:4">
@@ -2618,10 +5173,10 @@
         <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:4">
@@ -2632,10 +5187,10 @@
         <v>115</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>280</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>117</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:4">
@@ -2646,10 +5201,10 @@
         <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:4">
@@ -2660,10 +5215,10 @@
         <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:4">
@@ -2674,10 +5229,10 @@
         <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>286</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>117</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:4">
@@ -2688,10 +5243,10 @@
         <v>126</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>127</v>
+        <v>287</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>128</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:4">
@@ -2702,10 +5257,10 @@
         <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:4">
@@ -2716,10 +5271,10 @@
         <v>132</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:4">
@@ -2730,10 +5285,10 @@
         <v>135</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>136</v>
+        <v>293</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>137</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:4">
@@ -2744,10 +5299,10 @@
         <v>138</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>140</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:4">
@@ -2758,10 +5313,10 @@
         <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>142</v>
+        <v>297</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>143</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:4">
@@ -2772,10 +5327,10 @@
         <v>144</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:4">
@@ -2786,10 +5341,10 @@
         <v>146</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>148</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:4">
@@ -2800,10 +5355,10 @@
         <v>149</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2812,746 +5367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="22.4326923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="74.6153846153846" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6153846153846" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.538461538462" style="1" customWidth="1"/>
-    <col min="4" max="4" width="91.2307692307692" style="1" customWidth="1"/>
-    <col min="5" max="16383" width="22.4326923076923" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="22.4326923076923" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A50"/>
@@ -3564,252 +5380,252 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
